--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9084"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>可参评学号</t>
   </si>
@@ -23,45 +23,6 @@
   </si>
   <si>
     <t>201700620714</t>
-  </si>
-  <si>
-    <t>201700620835</t>
-  </si>
-  <si>
-    <t>201700800167</t>
-  </si>
-  <si>
-    <t>201700810056</t>
-  </si>
-  <si>
-    <t>201700810196</t>
-  </si>
-  <si>
-    <t>201700810233</t>
-  </si>
-  <si>
-    <t>201700810271</t>
-  </si>
-  <si>
-    <t>201700830001</t>
-  </si>
-  <si>
-    <t>201700830002</t>
-  </si>
-  <si>
-    <t>201700830003</t>
-  </si>
-  <si>
-    <t>201700830007</t>
-  </si>
-  <si>
-    <t>201700830016</t>
-  </si>
-  <si>
-    <t>201700830025</t>
-  </si>
-  <si>
-    <t>201700830028</t>
   </si>
   <si>
     <t>201700830030</t>
@@ -141,9 +102,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -155,17 +116,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,70 +198,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -277,7 +232,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,15 +240,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,19 +275,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,13 +401,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,145 +449,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,17 +482,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,11 +521,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,21 +550,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,10 +587,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -638,133 +599,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1103,7 +1064,7 @@
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1127,188 +1088,162 @@
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="3" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="3" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="3" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="3" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
